--- a/Documentation, figures, etc/WhiteBoxTests.xlsx
+++ b/Documentation, figures, etc/WhiteBoxTests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s204472_dtu_dk/Documents/DTU/02161_Software_Engineering_1/Project/Project/SoftwareEngineering02161/Documentation, figures, etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="8_{A437F17A-5F34-4C3A-9B66-3EB13CFEAD13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4B0B07E3-510E-457D-BD24-D3A9B41BF2D0}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="8_{A437F17A-5F34-4C3A-9B66-3EB13CFEAD13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{80ECDC6B-5B93-4E7A-ADE2-8284ECDBE90F}"/>
   <bookViews>
-    <workbookView xWindow="-47115" yWindow="8925" windowWidth="17880" windowHeight="15660" xr2:uid="{DF258800-DD81-4D43-B493-28BED55C5AE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{DF258800-DD81-4D43-B493-28BED55C5AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -711,7 +711,7 @@
   <dimension ref="A4:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="H3" sqref="H3:S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation, figures, etc/WhiteBoxTests.xlsx
+++ b/Documentation, figures, etc/WhiteBoxTests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s204472_dtu_dk/Documents/DTU/02161_Software_Engineering_1/Project/Project/SoftwareEngineering02161/Documentation, figures, etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="8_{A437F17A-5F34-4C3A-9B66-3EB13CFEAD13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{80ECDC6B-5B93-4E7A-ADE2-8284ECDBE90F}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="8_{A437F17A-5F34-4C3A-9B66-3EB13CFEAD13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2D106BA4-623C-449E-AD11-AB6B8F09E108}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{DF258800-DD81-4D43-B493-28BED55C5AE6}"/>
+    <workbookView xWindow="-38400" yWindow="5490" windowWidth="17880" windowHeight="15660" xr2:uid="{DF258800-DD81-4D43-B493-28BED55C5AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="56">
   <si>
     <t>Search Employees</t>
   </si>
@@ -184,6 +184,24 @@
   </si>
   <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t>IsAvailable</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Test 10</t>
+  </si>
+  <si>
+    <t>Test 11</t>
   </si>
 </sst>
 </file>
@@ -370,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -394,6 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068188F8-83A5-4CCF-8890-F898D723EA11}">
-  <dimension ref="A4:O17"/>
+  <dimension ref="A4:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:S29"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,17 +749,26 @@
     <col min="13" max="13" width="23.28515625" customWidth="1"/>
     <col min="14" max="14" width="17.85546875" customWidth="1"/>
     <col min="15" max="16" width="17.140625" customWidth="1"/>
+    <col min="18" max="18" width="24.140625" customWidth="1"/>
+    <col min="19" max="19" width="24.28515625" customWidth="1"/>
+    <col min="20" max="20" width="23.42578125" customWidth="1"/>
+    <col min="21" max="21" width="22.5703125" customWidth="1"/>
+    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="23" max="23" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -766,8 +794,20 @@
       <c r="O5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R5" s="20"/>
+      <c r="S5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="V5" s="11"/>
+      <c r="W5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
@@ -794,8 +834,21 @@
       <c r="N6" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R6" s="21"/>
+      <c r="S6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
@@ -823,8 +876,22 @@
       <c r="O7" s="22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" s="13"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
@@ -849,8 +916,22 @@
       <c r="O8" s="22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" s="6"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
@@ -877,8 +958,22 @@
       <c r="O9" s="22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9" t="s">
+        <v>23</v>
+      </c>
+      <c r="U9" s="6"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I10" s="14" t="s">
         <v>25</v>
       </c>
@@ -895,8 +990,22 @@
       <c r="O10" s="22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I11" s="14" t="s">
         <v>26</v>
       </c>
@@ -913,8 +1022,22 @@
       <c r="O11" s="22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T11" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" s="6"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I12" s="14" t="s">
         <v>27</v>
       </c>
@@ -936,8 +1059,26 @@
       <c r="O12" s="22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T12" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I13" s="14" t="s">
         <v>28</v>
       </c>
@@ -959,8 +1100,26 @@
       <c r="O13" s="22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S13" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W13" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I14" s="16"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
@@ -972,8 +1131,18 @@
         <v>46</v>
       </c>
       <c r="O14" s="17"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R14" s="16"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="W14" s="17"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I15" s="14" t="s">
         <v>29</v>
       </c>
@@ -995,8 +1164,26 @@
       <c r="O15" s="22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15" t="s">
+        <v>42</v>
+      </c>
+      <c r="T15" t="s">
+        <v>45</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="W15" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I16" s="15" t="s">
         <v>30</v>
       </c>
@@ -1018,14 +1205,70 @@
       <c r="O16" s="22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="R16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="S16" t="s">
+        <v>42</v>
+      </c>
+      <c r="T16" t="s">
+        <v>45</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="V16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W16" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="9:23" x14ac:dyDescent="0.25">
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
+      <c r="R17" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="S17" t="s">
+        <v>42</v>
+      </c>
+      <c r="T17" t="s">
+        <v>45</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="V17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W17" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="R18" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="S18" t="s">
+        <v>44</v>
+      </c>
+      <c r="T18" t="s">
+        <v>42</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="V18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W18" s="22" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Documentation, figures, etc/WhiteBoxTests.xlsx
+++ b/Documentation, figures, etc/WhiteBoxTests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s204472_dtu_dk/Documents/DTU/02161_Software_Engineering_1/Project/Project/SoftwareEngineering02161/Documentation, figures, etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="8_{A437F17A-5F34-4C3A-9B66-3EB13CFEAD13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2D106BA4-623C-449E-AD11-AB6B8F09E108}"/>
+  <xr:revisionPtr revIDLastSave="708" documentId="8_{A437F17A-5F34-4C3A-9B66-3EB13CFEAD13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{25BD49D1-36B3-4693-9521-70DB378506FB}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="5490" windowWidth="17880" windowHeight="15660" xr2:uid="{DF258800-DD81-4D43-B493-28BED55C5AE6}"/>
+    <workbookView xWindow="-8925" yWindow="8040" windowWidth="17880" windowHeight="15660" xr2:uid="{DF258800-DD81-4D43-B493-28BED55C5AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="154">
   <si>
     <t>Search Employees</t>
   </si>
@@ -42,30 +42,9 @@
     <t>Existing employees</t>
   </si>
   <si>
-    <t>joh, pet, per</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>joh</t>
-  </si>
-  <si>
     <t>Expected output</t>
   </si>
   <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>employee joh</t>
-  </si>
-  <si>
-    <t>pet, per</t>
-  </si>
-  <si>
-    <t>error message "Employee doesn't exist"</t>
-  </si>
-  <si>
     <t>AddActivity</t>
   </si>
   <si>
@@ -202,6 +181,321 @@
   </si>
   <si>
     <t>Test 11</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>1 true</t>
+  </si>
+  <si>
+    <t>1(0)</t>
+  </si>
+  <si>
+    <t>Input set</t>
+  </si>
+  <si>
+    <t>Input property</t>
+  </si>
+  <si>
+    <t>1(1), 2 true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(1), not 2 </t>
+  </si>
+  <si>
+    <t>2 employees. Search last employee</t>
+  </si>
+  <si>
+    <t>1(2), not 2, 2 true</t>
+  </si>
+  <si>
+    <t>"joh"</t>
+  </si>
+  <si>
+    <t>"pet"</t>
+  </si>
+  <si>
+    <t>Table1</t>
+  </si>
+  <si>
+    <t>Table2</t>
+  </si>
+  <si>
+    <t>Input data set</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Search parameter</t>
+  </si>
+  <si>
+    <t>No employees when searching</t>
+  </si>
+  <si>
+    <t>1 employee with search initials</t>
+  </si>
+  <si>
+    <t>1 employee with incorrect search initials</t>
+  </si>
+  <si>
+    <t>"joh", "pet"</t>
+  </si>
+  <si>
+    <t>Employee doesn't exist</t>
+  </si>
+  <si>
+    <t>Employee "joh"</t>
+  </si>
+  <si>
+    <t>Employee "pet"</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>table 1</t>
+  </si>
+  <si>
+    <t>table 2</t>
+  </si>
+  <si>
+    <t>not 1, 2(0)</t>
+  </si>
+  <si>
+    <t>not 1, 2(1), 3 true</t>
+  </si>
+  <si>
+    <t>not 1, 2(1), not 3</t>
+  </si>
+  <si>
+    <t>not 1, 2(2), not 3, not 3</t>
+  </si>
+  <si>
+    <t>not 1, 2(2), not 3, 3 true</t>
+  </si>
+  <si>
+    <t>Activity input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End </t>
+  </si>
+  <si>
+    <t>Start time is same as end time</t>
+  </si>
+  <si>
+    <t>Start time after end time</t>
+  </si>
+  <si>
+    <t>Start time not in half hour interval</t>
+  </si>
+  <si>
+    <t>End time not in half hour interval</t>
+  </si>
+  <si>
+    <t>Timeframe not available</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>No existing activities. No error in input</t>
+  </si>
+  <si>
+    <t>Activity 6.1</t>
+  </si>
+  <si>
+    <t>2021 04 05 12 0</t>
+  </si>
+  <si>
+    <t>Activity 7.1</t>
+  </si>
+  <si>
+    <t>2021 04 03 12 0</t>
+  </si>
+  <si>
+    <t>Activity 8.1</t>
+  </si>
+  <si>
+    <t>2021 04 06 0 0</t>
+  </si>
+  <si>
+    <t>Start time in middle of existing activity</t>
+  </si>
+  <si>
+    <t>End time in midlle of existing activity</t>
+  </si>
+  <si>
+    <t>Start time is equal to start time of existing activity</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Activity 9.1</t>
+  </si>
+  <si>
+    <t>2021 04 07 0 0</t>
+  </si>
+  <si>
+    <t>Created activity</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>1 existing activity. No error in input</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Activity 10.1</t>
+  </si>
+  <si>
+    <t>Activity 10</t>
+  </si>
+  <si>
+    <t>2021 04 08 0 0</t>
+  </si>
+  <si>
+    <t>2021 04 09 0 0</t>
+  </si>
+  <si>
+    <t>2 existing activity. No error in input</t>
+  </si>
+  <si>
+    <t>2 existing activity. Start time in existing activity 2</t>
+  </si>
+  <si>
+    <t>Activity 11.1</t>
+  </si>
+  <si>
+    <t>Activity 11</t>
+  </si>
+  <si>
+    <t>2021 04 07 12 0</t>
+  </si>
+  <si>
+    <t>2021 04 06 12 0</t>
+  </si>
+  <si>
+    <t>Start time before, end time after existing activity</t>
+  </si>
+  <si>
+    <t>End time is equal to end time of existing activity</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Activity 12.1</t>
+  </si>
+  <si>
+    <t>Activity 12.2</t>
+  </si>
+  <si>
+    <t>Activity 12</t>
+  </si>
+  <si>
+    <t>Activity 13.1</t>
+  </si>
+  <si>
+    <t>Activity 13.2</t>
+  </si>
+  <si>
+    <t>Activity 13</t>
+  </si>
+  <si>
+    <t>not 1, 2 true</t>
+  </si>
+  <si>
+    <t>not 1, not 2, 3(1), 4 true</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
+    <t>Table 2</t>
+  </si>
+  <si>
+    <t>Start time is the same as end time</t>
+  </si>
+  <si>
+    <t>No existing activities</t>
+  </si>
+  <si>
+    <t>start time after last existing activity</t>
+  </si>
+  <si>
+    <t>end time before first existing activity</t>
+  </si>
+  <si>
+    <t>2 existing activities, add activity inbetween</t>
+  </si>
+  <si>
+    <t>not 1, not 2, 3(2), not 4, not 4</t>
+  </si>
+  <si>
+    <t>3 existing activities, not available input</t>
+  </si>
+  <si>
+    <t>Input dataset</t>
+  </si>
+  <si>
+    <t>IsAvailable input</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End time</t>
+  </si>
+  <si>
+    <t>Invalid timeframe</t>
+  </si>
+  <si>
+    <t>2021 04 02 0 0</t>
+  </si>
+  <si>
+    <t>Activity 3.1</t>
+  </si>
+  <si>
+    <t>Activity 3.2</t>
+  </si>
+  <si>
+    <t>Activity 4.1</t>
+  </si>
+  <si>
+    <t>Activity 4.2</t>
+  </si>
+  <si>
+    <t>Activity 4.3</t>
+  </si>
+  <si>
+    <t>2021 04 06 8 0</t>
   </si>
 </sst>
 </file>
@@ -248,32 +542,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -306,17 +591,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -334,17 +608,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -388,31 +651,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,16 +989,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068188F8-83A5-4CCF-8890-F898D723EA11}">
-  <dimension ref="A4:W18"/>
+  <dimension ref="A4:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" topLeftCell="P16" workbookViewId="0">
+      <selection activeCell="U45" sqref="U45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
     <col min="5" max="5" width="31.28515625" customWidth="1"/>
@@ -748,527 +1010,1452 @@
     <col min="12" max="12" width="19" customWidth="1"/>
     <col min="13" max="13" width="23.28515625" customWidth="1"/>
     <col min="14" max="14" width="17.85546875" customWidth="1"/>
-    <col min="15" max="16" width="17.140625" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" customWidth="1"/>
+    <col min="16" max="16" width="23.140625" customWidth="1"/>
     <col min="18" max="18" width="24.140625" customWidth="1"/>
-    <col min="19" max="19" width="24.28515625" customWidth="1"/>
+    <col min="19" max="19" width="27.85546875" customWidth="1"/>
     <col min="20" max="20" width="23.42578125" customWidth="1"/>
     <col min="21" max="21" width="22.5703125" customWidth="1"/>
     <col min="22" max="22" width="18" customWidth="1"/>
     <col min="23" max="23" width="22.42578125" customWidth="1"/>
+    <col min="24" max="24" width="31.5703125" customWidth="1"/>
+    <col min="25" max="25" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:23" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="H4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="14"/>
+      <c r="S5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V5" s="5"/>
+      <c r="W5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R6" s="15"/>
+      <c r="S6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="I7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="U7" s="7"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="I8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T8" t="s">
+        <v>15</v>
+      </c>
+      <c r="U8" s="3"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="I9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T9" t="s">
+        <v>16</v>
+      </c>
+      <c r="U9" s="3"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="3"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S11" t="s">
+        <v>11</v>
+      </c>
+      <c r="T11" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" s="3"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" t="s">
+        <v>34</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="W12" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W13" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="12"/>
+      <c r="M14" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="11"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W14" s="11"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" t="s">
+        <v>38</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W15" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="L16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="16"/>
+      <c r="R16" s="8"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="16"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" t="s">
+        <v>35</v>
+      </c>
+      <c r="T17" t="s">
+        <v>38</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W17" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="R18" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="S18" t="s">
+        <v>35</v>
+      </c>
+      <c r="T18" t="s">
+        <v>38</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W18" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R19" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S19" t="s">
+        <v>37</v>
+      </c>
+      <c r="T19" t="s">
+        <v>35</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W19" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="J21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B22" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D22" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" t="s">
+        <v>102</v>
+      </c>
+      <c r="K26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R26" t="s">
+        <v>133</v>
+      </c>
+      <c r="S26" t="s">
+        <v>49</v>
+      </c>
+      <c r="T26" t="s">
+        <v>52</v>
+      </c>
+      <c r="U26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27" t="s">
+        <v>103</v>
+      </c>
+      <c r="K27" t="s">
+        <v>100</v>
+      </c>
+      <c r="S27" t="s">
+        <v>50</v>
+      </c>
+      <c r="T27" t="s">
+        <v>63</v>
+      </c>
+      <c r="U27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" t="s">
+        <v>122</v>
+      </c>
+      <c r="S28" t="s">
+        <v>50</v>
+      </c>
+      <c r="T28" t="s">
+        <v>64</v>
+      </c>
+      <c r="U28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" t="s">
+        <v>108</v>
+      </c>
+      <c r="K29" t="s">
+        <v>101</v>
+      </c>
+      <c r="S29" t="s">
+        <v>50</v>
+      </c>
+      <c r="T29" t="s">
+        <v>65</v>
+      </c>
+      <c r="U29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>80</v>
+      </c>
+      <c r="J30" t="s">
+        <v>110</v>
+      </c>
+      <c r="K30" t="s">
+        <v>123</v>
+      </c>
+      <c r="S30" t="s">
+        <v>50</v>
+      </c>
+      <c r="T30" t="s">
+        <v>66</v>
+      </c>
+      <c r="U30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>81</v>
+      </c>
+      <c r="J31" t="s">
+        <v>111</v>
+      </c>
+      <c r="K31" t="s">
+        <v>109</v>
+      </c>
+      <c r="S31" t="s">
+        <v>131</v>
+      </c>
+      <c r="T31" t="s">
+        <v>91</v>
+      </c>
+      <c r="U31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J32" t="s">
+        <v>76</v>
+      </c>
+      <c r="K32" t="s">
+        <v>116</v>
+      </c>
+      <c r="S32" t="s">
+        <v>131</v>
+      </c>
+      <c r="T32" t="s">
+        <v>102</v>
+      </c>
+      <c r="U32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" t="s">
+        <v>124</v>
+      </c>
+      <c r="K33" t="s">
+        <v>117</v>
+      </c>
+      <c r="S33" t="s">
+        <v>131</v>
+      </c>
+      <c r="T33" t="s">
+        <v>103</v>
+      </c>
+      <c r="U33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="S34" t="s">
+        <v>132</v>
+      </c>
+      <c r="T34" t="s">
+        <v>104</v>
+      </c>
+      <c r="U34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="S35" t="s">
+        <v>140</v>
+      </c>
+      <c r="T35" t="s">
+        <v>108</v>
+      </c>
+      <c r="U35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+      <c r="J37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M37" t="s">
+        <v>84</v>
+      </c>
+      <c r="P37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12" t="s">
+      <c r="K38" t="s">
+        <v>85</v>
+      </c>
+      <c r="L38" t="s">
+        <v>7</v>
+      </c>
+      <c r="M38" t="s">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>85</v>
+      </c>
+      <c r="O38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P39" t="s">
+        <v>90</v>
+      </c>
+      <c r="R39" t="s">
+        <v>134</v>
+      </c>
+      <c r="S39" t="s">
+        <v>142</v>
+      </c>
+      <c r="T39" t="s">
+        <v>8</v>
+      </c>
+      <c r="W39" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+      <c r="M40" t="s">
+        <v>11</v>
+      </c>
+      <c r="N40" t="s">
+        <v>16</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="T40" t="s">
+        <v>5</v>
+      </c>
+      <c r="U40" t="s">
+        <v>85</v>
+      </c>
+      <c r="V40" t="s">
+        <v>7</v>
+      </c>
+      <c r="W40" t="s">
+        <v>144</v>
+      </c>
+      <c r="X40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+      <c r="M41" t="s">
+        <v>33</v>
+      </c>
+      <c r="N41" t="s">
+        <v>11</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S41" t="s">
+        <v>63</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+      <c r="M42" t="s">
+        <v>11</v>
+      </c>
+      <c r="N42" t="s">
+        <v>33</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S42" t="s">
+        <v>64</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>91</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="11"/>
-      <c r="O5" t="s">
-        <v>5</v>
-      </c>
-      <c r="R5" s="20"/>
-      <c r="S5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12" t="s">
+      <c r="O43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="S43" t="s">
+        <v>65</v>
+      </c>
+      <c r="W43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="W5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="13" t="s">
+      <c r="Y43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>102</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S44" t="s">
+        <v>66</v>
+      </c>
+      <c r="W44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>103</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S45" t="s">
+        <v>91</v>
+      </c>
+      <c r="W45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>104</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S46" t="s">
+        <v>102</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V46" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="12" t="s">
+      <c r="W46" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="X46" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="R6" s="21"/>
-      <c r="S6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="U6" s="13" t="s">
+      <c r="Y46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>108</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S47" t="s">
+        <v>103</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V47" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="W47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="X47" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y47" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="I48" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L48" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="M48" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="V6" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="I7" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="R7" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="U7" s="13"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="I8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="R8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" t="s">
-        <v>18</v>
-      </c>
-      <c r="T8" t="s">
-        <v>22</v>
-      </c>
-      <c r="U8" s="6"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="I9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="R9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="S9" t="s">
-        <v>18</v>
-      </c>
-      <c r="T9" t="s">
-        <v>23</v>
-      </c>
-      <c r="U9" s="6"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="9"/>
-      <c r="O10" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="R10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="S10" t="s">
-        <v>18</v>
-      </c>
-      <c r="T10" t="s">
-        <v>39</v>
-      </c>
-      <c r="U10" s="6"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="R11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="S11" t="s">
-        <v>18</v>
-      </c>
-      <c r="T11" t="s">
-        <v>40</v>
-      </c>
-      <c r="U11" s="6"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="R12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S12" t="s">
-        <v>42</v>
-      </c>
-      <c r="T12" t="s">
-        <v>41</v>
-      </c>
-      <c r="U12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="V12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="N48" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O48" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="P48" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="S48" t="s">
+        <v>104</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V48" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="W48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="X48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y48" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="O13" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="S13" t="s">
-        <v>42</v>
-      </c>
-      <c r="T13" t="s">
-        <v>41</v>
-      </c>
-      <c r="U13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="V13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="W13" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I14" s="16"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="18"/>
-      <c r="M14" t="s">
-        <v>45</v>
-      </c>
-      <c r="N14" s="9" t="s">
+    </row>
+    <row r="49" spans="9:25" x14ac:dyDescent="0.25">
+      <c r="I49" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="J49" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L49" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="M49" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="N49" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="O49" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="P49" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="S49" s="20"/>
+      <c r="T49" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="V49" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="W49" s="20"/>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="20"/>
+    </row>
+    <row r="50" spans="9:25" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>76</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="S50" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V50" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="W50" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="X50" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y50" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="17"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="V14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="W14" s="17"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I15" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15" t="s">
-        <v>45</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="R15" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="S15" t="s">
-        <v>42</v>
-      </c>
-      <c r="T15" t="s">
-        <v>45</v>
-      </c>
-      <c r="U15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="V15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="W15" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I16" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O16" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="R16" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="S16" t="s">
-        <v>42</v>
-      </c>
-      <c r="T16" t="s">
-        <v>45</v>
-      </c>
-      <c r="U16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="V16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="W16" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="R17" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="S17" t="s">
-        <v>42</v>
-      </c>
-      <c r="T17" t="s">
-        <v>45</v>
-      </c>
-      <c r="U17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="V17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="W17" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="R18" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="S18" t="s">
-        <v>44</v>
-      </c>
-      <c r="T18" t="s">
-        <v>42</v>
-      </c>
-      <c r="U18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="V18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="W18" s="22" t="s">
-        <v>53</v>
-      </c>
+    </row>
+    <row r="51" spans="9:25" x14ac:dyDescent="0.25">
+      <c r="I51" s="20"/>
+      <c r="J51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="U51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="V51" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="W51" s="20"/>
+      <c r="X51" s="20"/>
+      <c r="Y51" s="20"/>
+    </row>
+    <row r="52" spans="9:25" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>124</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S52" s="20"/>
+      <c r="T52" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="V52" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="W52" s="20"/>
+      <c r="X52" s="20"/>
+      <c r="Y52" s="20"/>
+    </row>
+    <row r="53" spans="9:25" x14ac:dyDescent="0.25">
+      <c r="I53" s="20"/>
+      <c r="J53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Documentation, figures, etc/WhiteBoxTests.xlsx
+++ b/Documentation, figures, etc/WhiteBoxTests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s204472_dtu_dk/Documents/DTU/02161_Software_Engineering_1/Project/Project/SoftwareEngineering02161/Documentation, figures, etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="708" documentId="8_{A437F17A-5F34-4C3A-9B66-3EB13CFEAD13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{25BD49D1-36B3-4693-9521-70DB378506FB}"/>
+  <xr:revisionPtr revIDLastSave="723" documentId="8_{A437F17A-5F34-4C3A-9B66-3EB13CFEAD13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{53AD6EC6-D0BE-422C-A2B0-D8763E888144}"/>
   <bookViews>
-    <workbookView xWindow="-8925" yWindow="8040" windowWidth="17880" windowHeight="15660" xr2:uid="{DF258800-DD81-4D43-B493-28BED55C5AE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{DF258800-DD81-4D43-B493-28BED55C5AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -533,7 +533,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,6 +549,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -673,8 +679,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -991,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068188F8-83A5-4CCF-8890-F898D723EA11}">
   <dimension ref="A4:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P16" workbookViewId="0">
-      <selection activeCell="U45" sqref="U45"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="T44" sqref="T44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,6 +1705,9 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>6</v>
+      </c>
       <c r="I26" t="s">
         <v>80</v>
       </c>
@@ -1721,6 +1743,9 @@
       <c r="E27" t="s">
         <v>74</v>
       </c>
+      <c r="H27">
+        <v>7</v>
+      </c>
       <c r="I27" t="s">
         <v>80</v>
       </c>
@@ -1741,6 +1766,9 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>8</v>
+      </c>
       <c r="I28" t="s">
         <v>80</v>
       </c>
@@ -1761,6 +1789,9 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>9</v>
+      </c>
       <c r="I29" t="s">
         <v>80</v>
       </c>
@@ -1781,6 +1812,9 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>10</v>
+      </c>
       <c r="I30" t="s">
         <v>80</v>
       </c>
@@ -1801,6 +1835,9 @@
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>11</v>
+      </c>
       <c r="I31" t="s">
         <v>81</v>
       </c>
@@ -1889,12 +1926,16 @@
       <c r="I37" t="s">
         <v>62</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M37" t="s">
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25" t="s">
         <v>84</v>
       </c>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
       <c r="P37" t="s">
         <v>2</v>
       </c>
@@ -1920,19 +1961,22 @@
       </c>
     </row>
     <row r="39" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="I39" t="s">
+      <c r="I39" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="M39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O39" s="2" t="s">
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="N39" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="O39" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="22" t="s">
         <v>90</v>
       </c>
       <c r="R39" t="s">
@@ -1952,7 +1996,7 @@
       </c>
     </row>
     <row r="40" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="I40" t="s">
+      <c r="I40" s="24" t="s">
         <v>64</v>
       </c>
       <c r="M40" t="s">
@@ -1984,19 +2028,22 @@
       </c>
     </row>
     <row r="41" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="I41" t="s">
+      <c r="I41" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="M41" t="s">
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="N41" t="s">
-        <v>11</v>
-      </c>
-      <c r="O41" s="2" t="s">
+      <c r="N41" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="O41" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="P41" s="2" t="s">
+      <c r="P41" s="23" t="s">
         <v>90</v>
       </c>
       <c r="S41" t="s">
@@ -2013,7 +2060,7 @@
       </c>
     </row>
     <row r="42" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="I42" t="s">
+      <c r="I42" s="24" t="s">
         <v>66</v>
       </c>
       <c r="M42" t="s">
@@ -2042,19 +2089,22 @@
       </c>
     </row>
     <row r="43" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="I43" t="s">
+      <c r="I43" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N43" s="2" t="s">
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="N43" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O43" s="2" t="s">
+      <c r="O43" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="P43" s="2" t="s">
+      <c r="P43" s="23" t="s">
         <v>107</v>
       </c>
       <c r="S43" t="s">
@@ -2071,7 +2121,7 @@
       </c>
     </row>
     <row r="44" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="I44" t="s">
+      <c r="I44" s="24" t="s">
         <v>102</v>
       </c>
       <c r="J44" s="2" t="s">
@@ -2109,28 +2159,28 @@
       </c>
     </row>
     <row r="45" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="I45" t="s">
+      <c r="I45" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L45" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="N45" s="2" t="s">
+      <c r="N45" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="O45" s="2" t="s">
+      <c r="O45" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="P45" s="2" t="s">
+      <c r="P45" s="23" t="s">
         <v>90</v>
       </c>
       <c r="S45" t="s">
@@ -2147,7 +2197,7 @@
       </c>
     </row>
     <row r="46" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="I46" t="s">
+      <c r="I46" s="24" t="s">
         <v>104</v>
       </c>
       <c r="J46" s="2" t="s">
@@ -2194,28 +2244,28 @@
       </c>
     </row>
     <row r="47" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="I47" t="s">
+      <c r="I47" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="L47" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="M47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N47" s="2" t="s">
+      <c r="M47" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="N47" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="O47" s="2" t="s">
+      <c r="O47" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="P47" s="2" t="s">
+      <c r="P47" s="23" t="s">
         <v>90</v>
       </c>
       <c r="S47" t="s">
@@ -2241,7 +2291,7 @@
       </c>
     </row>
     <row r="48" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="I48" s="22" t="s">
+      <c r="I48" s="27" t="s">
         <v>110</v>
       </c>
       <c r="J48" s="16" t="s">
@@ -2288,28 +2338,28 @@
       </c>
     </row>
     <row r="49" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I49" s="20" t="s">
+      <c r="I49" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="J49" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="21" t="s">
+      <c r="J49" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="L49" s="21" t="s">
+      <c r="L49" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="M49" s="21" t="s">
+      <c r="M49" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="N49" s="21" t="s">
+      <c r="N49" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="O49" s="21" t="s">
+      <c r="O49" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="P49" s="21" t="s">
+      <c r="P49" s="23" t="s">
         <v>107</v>
       </c>
       <c r="S49" s="20"/>
@@ -2327,28 +2377,28 @@
       <c r="Y49" s="20"/>
     </row>
     <row r="50" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I50" t="s">
+      <c r="I50" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="L50" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="N50" s="2" t="s">
+      <c r="N50" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="O50" s="2" t="s">
+      <c r="O50" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="P50" s="2" t="s">
+      <c r="P50" s="16" t="s">
         <v>107</v>
       </c>
       <c r="S50" s="16" t="s">
@@ -2374,20 +2424,20 @@
       </c>
     </row>
     <row r="51" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I51" s="20"/>
-      <c r="J51" s="2" t="s">
+      <c r="I51" s="27"/>
+      <c r="J51" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K51" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="L51" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
       <c r="S51" s="20"/>
       <c r="T51" s="2" t="s">
         <v>98</v>
@@ -2403,28 +2453,28 @@
       <c r="Y51" s="20"/>
     </row>
     <row r="52" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I52" t="s">
+      <c r="I52" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="L52" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="N52" s="2" t="s">
+      <c r="N52" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="O52" s="2" t="s">
+      <c r="O52" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="P52" s="2" t="s">
+      <c r="P52" s="23" t="s">
         <v>90</v>
       </c>
       <c r="S52" s="20"/>
@@ -2442,22 +2492,26 @@
       <c r="Y52" s="20"/>
     </row>
     <row r="53" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I53" s="20"/>
-      <c r="J53" s="2" t="s">
+      <c r="I53" s="26"/>
+      <c r="J53" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="K53" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="L53" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
